--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8.533921000000001</v>
+        <v>17.60633566666667</v>
       </c>
       <c r="H2">
-        <v>25.601763</v>
+        <v>52.819007</v>
       </c>
       <c r="I2">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="J2">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.81388166666666</v>
+        <v>35.82261933333334</v>
       </c>
       <c r="N2">
-        <v>92.44164499999999</v>
+        <v>107.467858</v>
       </c>
       <c r="O2">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="P2">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="Q2">
-        <v>262.9632318466817</v>
+        <v>630.7050604418896</v>
       </c>
       <c r="R2">
-        <v>2366.669086620135</v>
+        <v>5676.345543977006</v>
       </c>
       <c r="S2">
-        <v>0.00169795216656922</v>
+        <v>0.003510926830484298</v>
       </c>
       <c r="T2">
-        <v>0.00169795216656922</v>
+        <v>0.003510926830484297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8.533921000000001</v>
+        <v>17.60633566666667</v>
       </c>
       <c r="H3">
-        <v>25.601763</v>
+        <v>52.819007</v>
       </c>
       <c r="I3">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="J3">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>248.191292</v>
       </c>
       <c r="O3">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="P3">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="Q3">
-        <v>706.0149596053108</v>
+        <v>1456.579732165227</v>
       </c>
       <c r="R3">
-        <v>6354.134636447797</v>
+        <v>13109.21758948704</v>
       </c>
       <c r="S3">
-        <v>0.00455873477776184</v>
+        <v>0.008108298447479644</v>
       </c>
       <c r="T3">
-        <v>0.004558734777761839</v>
+        <v>0.00810829844747964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8.533921000000001</v>
+        <v>17.60633566666667</v>
       </c>
       <c r="H4">
-        <v>25.601763</v>
+        <v>52.819007</v>
       </c>
       <c r="I4">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="J4">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.624648</v>
+        <v>73.74809799999998</v>
       </c>
       <c r="N4">
-        <v>184.873944</v>
+        <v>221.244294</v>
       </c>
       <c r="O4">
-        <v>0.3348437033488628</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="P4">
-        <v>0.3348437033488627</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="Q4">
-        <v>525.8998776848081</v>
+        <v>1298.433768166228</v>
       </c>
       <c r="R4">
-        <v>4733.098899163272</v>
+        <v>11685.90391349606</v>
       </c>
       <c r="S4">
-        <v>0.003395732667424911</v>
+        <v>0.007227952081227449</v>
       </c>
       <c r="T4">
-        <v>0.00339573266742491</v>
+        <v>0.007227952081227447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>8.533921000000001</v>
+        <v>17.60633566666667</v>
       </c>
       <c r="H5">
-        <v>25.601763</v>
+        <v>52.819007</v>
       </c>
       <c r="I5">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="J5">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.871077999999999</v>
+        <v>8.41412</v>
       </c>
       <c r="N5">
-        <v>26.613234</v>
+        <v>25.24236</v>
       </c>
       <c r="O5">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="P5">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="Q5">
-        <v>75.705078836838</v>
+        <v>148.1418210596133</v>
       </c>
       <c r="R5">
-        <v>681.345709531542</v>
+        <v>1333.27638953652</v>
       </c>
       <c r="S5">
-        <v>0.0004888272848207497</v>
+        <v>0.0008246566055940523</v>
       </c>
       <c r="T5">
-        <v>0.0004888272848207496</v>
+        <v>0.000824656605594052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1795.984986</v>
       </c>
       <c r="I6">
-        <v>0.7114169116232693</v>
+        <v>0.6688940299055509</v>
       </c>
       <c r="J6">
-        <v>0.7114169116232691</v>
+        <v>0.6688940299055508</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.81388166666666</v>
+        <v>35.82261933333334</v>
       </c>
       <c r="N6">
-        <v>92.44164499999999</v>
+        <v>107.467858</v>
       </c>
       <c r="O6">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="P6">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="Q6">
-        <v>18447.08961123799</v>
+        <v>21445.62882728667</v>
       </c>
       <c r="R6">
-        <v>166023.806501142</v>
+        <v>193010.65944558</v>
       </c>
       <c r="S6">
-        <v>0.1191127579028245</v>
+        <v>0.1193807349406316</v>
       </c>
       <c r="T6">
-        <v>0.1191127579028245</v>
+        <v>0.1193807349406316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1795.984986</v>
       </c>
       <c r="I7">
-        <v>0.7114169116232693</v>
+        <v>0.6688940299055509</v>
       </c>
       <c r="J7">
-        <v>0.7114169116232691</v>
+        <v>0.6688940299055508</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>248.191292</v>
       </c>
       <c r="O7">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="P7">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="Q7">
         <v>49527.53712088243</v>
@@ -883,10 +883,10 @@
         <v>445747.8340879419</v>
       </c>
       <c r="S7">
-        <v>0.319799039465224</v>
+        <v>0.2757034465581783</v>
       </c>
       <c r="T7">
-        <v>0.3197990394652239</v>
+        <v>0.2757034465581783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1795.984986</v>
       </c>
       <c r="I8">
-        <v>0.7114169116232693</v>
+        <v>0.6688940299055509</v>
       </c>
       <c r="J8">
-        <v>0.7114169116232691</v>
+        <v>0.6688940299055508</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.624648</v>
+        <v>73.74809799999998</v>
       </c>
       <c r="N8">
-        <v>184.873944</v>
+        <v>221.244294</v>
       </c>
       <c r="O8">
-        <v>0.3348437033488628</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="P8">
-        <v>0.3348437033488627</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="Q8">
-        <v>36892.31419184498</v>
+        <v>44150.15891801887</v>
       </c>
       <c r="R8">
-        <v>332030.8277266048</v>
+        <v>397351.4302621698</v>
       </c>
       <c r="S8">
-        <v>0.2382134733129461</v>
+        <v>0.2457693575612269</v>
       </c>
       <c r="T8">
-        <v>0.238213473312946</v>
+        <v>0.2457693575612269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1795.984986</v>
       </c>
       <c r="I9">
-        <v>0.7114169116232693</v>
+        <v>0.6688940299055509</v>
       </c>
       <c r="J9">
-        <v>0.7114169116232691</v>
+        <v>0.6688940299055508</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.871077999999999</v>
+        <v>8.41412</v>
       </c>
       <c r="N9">
-        <v>26.613234</v>
+        <v>25.24236</v>
       </c>
       <c r="O9">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="P9">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="Q9">
-        <v>5310.774299211635</v>
+        <v>5037.21106346744</v>
       </c>
       <c r="R9">
-        <v>47796.96869290472</v>
+        <v>45334.89957120696</v>
       </c>
       <c r="S9">
-        <v>0.03429164094227464</v>
+        <v>0.02804049084551403</v>
       </c>
       <c r="T9">
-        <v>0.03429164094227463</v>
+        <v>0.02804049084551402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>233.627271</v>
+        <v>274.6625416666666</v>
       </c>
       <c r="H10">
-        <v>700.881813</v>
+        <v>823.987625</v>
       </c>
       <c r="I10">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029997</v>
       </c>
       <c r="J10">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029996</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.81388166666666</v>
+        <v>35.82261933333334</v>
       </c>
       <c r="N10">
-        <v>92.44164499999999</v>
+        <v>107.467858</v>
       </c>
       <c r="O10">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="P10">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="Q10">
-        <v>7198.963082700264</v>
+        <v>9839.131675250805</v>
       </c>
       <c r="R10">
-        <v>64790.66774430238</v>
+        <v>88552.18507725725</v>
       </c>
       <c r="S10">
-        <v>0.04648366571053379</v>
+        <v>0.05477119743276381</v>
       </c>
       <c r="T10">
-        <v>0.04648366571053378</v>
+        <v>0.0547711974327638</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>233.627271</v>
+        <v>274.6625416666666</v>
       </c>
       <c r="H11">
-        <v>700.881813</v>
+        <v>823.987625</v>
       </c>
       <c r="I11">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029997</v>
       </c>
       <c r="J11">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029996</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>248.191292</v>
       </c>
       <c r="O11">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="P11">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="Q11">
-        <v>19328.08474530804</v>
+        <v>22722.95036008461</v>
       </c>
       <c r="R11">
-        <v>173952.7627077724</v>
+        <v>204506.5532407615</v>
       </c>
       <c r="S11">
-        <v>0.1248013387212385</v>
+        <v>0.1264911621782276</v>
       </c>
       <c r="T11">
-        <v>0.1248013387212384</v>
+        <v>0.1264911621782276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>233.627271</v>
+        <v>274.6625416666666</v>
       </c>
       <c r="H12">
-        <v>700.881813</v>
+        <v>823.987625</v>
       </c>
       <c r="I12">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029997</v>
       </c>
       <c r="J12">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029996</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.624648</v>
+        <v>73.74809799999998</v>
       </c>
       <c r="N12">
-        <v>184.873944</v>
+        <v>221.244294</v>
       </c>
       <c r="O12">
-        <v>0.3348437033488628</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="P12">
-        <v>0.3348437033488627</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="Q12">
-        <v>14397.19833857561</v>
+        <v>20255.84003976241</v>
       </c>
       <c r="R12">
-        <v>129574.7850471805</v>
+        <v>182302.5603578617</v>
       </c>
       <c r="S12">
-        <v>0.09296263184719339</v>
+        <v>0.1127575735951343</v>
       </c>
       <c r="T12">
-        <v>0.09296263184719335</v>
+        <v>0.1127575735951342</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>233.627271</v>
+        <v>274.6625416666666</v>
       </c>
       <c r="H13">
-        <v>700.881813</v>
+        <v>823.987625</v>
       </c>
       <c r="I13">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029997</v>
       </c>
       <c r="J13">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029996</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.871077999999999</v>
+        <v>8.41412</v>
       </c>
       <c r="N13">
-        <v>26.613234</v>
+        <v>25.24236</v>
       </c>
       <c r="O13">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="P13">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="Q13">
-        <v>2072.525743968138</v>
+        <v>2311.043585088333</v>
       </c>
       <c r="R13">
-        <v>18652.73169571324</v>
+        <v>20799.392265795</v>
       </c>
       <c r="S13">
-        <v>0.01338228752562995</v>
+        <v>0.01286481659687401</v>
       </c>
       <c r="T13">
-        <v>0.01338228752562995</v>
+        <v>0.01286481659687401</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6832336666666666</v>
+        <v>4.071711</v>
       </c>
       <c r="H14">
-        <v>2.049701</v>
+        <v>12.215133</v>
       </c>
       <c r="I14">
-        <v>0.0008119176755585231</v>
+        <v>0.004549386326664026</v>
       </c>
       <c r="J14">
-        <v>0.000811917675558523</v>
+        <v>0.004549386326664025</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.81388166666666</v>
+        <v>35.82261933333334</v>
       </c>
       <c r="N14">
-        <v>92.44164499999999</v>
+        <v>107.467858</v>
       </c>
       <c r="O14">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="P14">
-        <v>0.1674303154124352</v>
+        <v>0.1784748100644408</v>
       </c>
       <c r="Q14">
-        <v>21.05308135534944</v>
+        <v>145.859353188346</v>
       </c>
       <c r="R14">
-        <v>189.477732198145</v>
+        <v>1312.734178695114</v>
       </c>
       <c r="S14">
-        <v>0.0001359396325076948</v>
+        <v>0.0008119508605611261</v>
       </c>
       <c r="T14">
-        <v>0.0001359396325076947</v>
+        <v>0.0008119508605611259</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6832336666666666</v>
+        <v>4.071711</v>
       </c>
       <c r="H15">
-        <v>2.049701</v>
+        <v>12.215133</v>
       </c>
       <c r="I15">
-        <v>0.0008119176755585231</v>
+        <v>0.004549386326664026</v>
       </c>
       <c r="J15">
-        <v>0.000811917675558523</v>
+        <v>0.004549386326664025</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>248.191292</v>
       </c>
       <c r="O15">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="P15">
-        <v>0.4495240895180933</v>
+        <v>0.4121780644343741</v>
       </c>
       <c r="Q15">
-        <v>56.5242154892991</v>
+        <v>336.8544045802039</v>
       </c>
       <c r="R15">
-        <v>508.717939403692</v>
+        <v>3031.689641221836</v>
       </c>
       <c r="S15">
-        <v>0.0003649765538690917</v>
+        <v>0.001875157250488585</v>
       </c>
       <c r="T15">
-        <v>0.0003649765538690917</v>
+        <v>0.001875157250488585</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6832336666666666</v>
+        <v>4.071711</v>
       </c>
       <c r="H16">
-        <v>2.049701</v>
+        <v>12.215133</v>
       </c>
       <c r="I16">
-        <v>0.0008119176755585231</v>
+        <v>0.004549386326664026</v>
       </c>
       <c r="J16">
-        <v>0.000811917675558523</v>
+        <v>0.004549386326664025</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.624648</v>
+        <v>73.74809799999998</v>
       </c>
       <c r="N16">
-        <v>184.873944</v>
+        <v>221.244294</v>
       </c>
       <c r="O16">
-        <v>0.3348437033488628</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="P16">
-        <v>0.3348437033488627</v>
+        <v>0.3674264480966141</v>
       </c>
       <c r="Q16">
-        <v>42.10403421008267</v>
+        <v>300.2809418556779</v>
       </c>
       <c r="R16">
-        <v>378.9363078907439</v>
+        <v>2702.528476701102</v>
       </c>
       <c r="S16">
-        <v>0.0002718655212984163</v>
+        <v>0.001671564859025466</v>
       </c>
       <c r="T16">
-        <v>0.0002718655212984162</v>
+        <v>0.001671564859025465</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6832336666666666</v>
+        <v>4.071711</v>
       </c>
       <c r="H17">
-        <v>2.049701</v>
+        <v>12.215133</v>
       </c>
       <c r="I17">
-        <v>0.0008119176755585231</v>
+        <v>0.004549386326664026</v>
       </c>
       <c r="J17">
-        <v>0.000811917675558523</v>
+        <v>0.004549386326664025</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.871077999999999</v>
+        <v>8.41412</v>
       </c>
       <c r="N17">
-        <v>26.613234</v>
+        <v>25.24236</v>
       </c>
       <c r="O17">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="P17">
-        <v>0.04820189172060865</v>
+        <v>0.04192067740457094</v>
       </c>
       <c r="Q17">
-        <v>6.061019149225999</v>
+        <v>34.25986495932</v>
       </c>
       <c r="R17">
-        <v>54.54917234303399</v>
+        <v>308.33878463388</v>
       </c>
       <c r="S17">
-        <v>3.913596788332019E-05</v>
+        <v>0.0001907133565888486</v>
       </c>
       <c r="T17">
-        <v>3.913596788332019E-05</v>
+        <v>0.0001907133565888486</v>
       </c>
     </row>
   </sheetData>
